--- a/iniciação científica/direito e relações raciais/REFERÊNCIAS.xlsx
+++ b/iniciação científica/direito e relações raciais/REFERÊNCIAS.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="HISTÓRIA DO RACISMO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Referências</t>
   </si>
@@ -32,87 +32,185 @@
     <t>História do Racismo</t>
   </si>
   <si>
-    <t>Obra</t>
-  </si>
-  <si>
     <t>Tema</t>
   </si>
   <si>
     <t>Fichamento</t>
   </si>
   <si>
-    <t>Autor</t>
-  </si>
-  <si>
-    <t>David Graeber</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GRAEBER, David; WENGROW, David. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O despertar de tudo: Uma nova história da humanidade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Nova Iorque: Farrar, Straus and Giroux, 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GRAEBER, David. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dívida: os primeiros 5000 anos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. São Paulo: Três Estrelas, 2016.</t>
-    </r>
-  </si>
-  <si>
-    <t>democracia</t>
-  </si>
-  <si>
-    <t>Silvio Almeida</t>
-  </si>
-  <si>
-    <t>Frantz Fanon</t>
+    <t>Autor(es)</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Localização</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Editora</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>GRAEBER, David; WENGROW, David.</t>
+  </si>
+  <si>
+    <t>LIVRO</t>
+  </si>
+  <si>
+    <t>O despertar de tudo: Uma nova história da humanidade.</t>
+  </si>
+  <si>
+    <t>físico</t>
+  </si>
+  <si>
+    <t>Nova Iorque</t>
+  </si>
+  <si>
+    <t>Farrar, Straus and Giroux</t>
+  </si>
+  <si>
+    <t>Recomendação do André</t>
+  </si>
+  <si>
+    <t>Dívida: os primeiros 5000 anos.</t>
+  </si>
+  <si>
+    <t>GRAEBER, David</t>
+  </si>
+  <si>
+    <t>livros e artigos\David Graeber\Dívida (os primeiros 5.000 anos) - David Graeber.pdf</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Três Estrelas</t>
+  </si>
+  <si>
+    <t>Um projeto de democracia: uma história, uma crise, um movimento</t>
+  </si>
+  <si>
+    <t>livros e artigos\David Graeber\Um Projeto de Democracia - David Graeber.pdf</t>
+  </si>
+  <si>
+    <t>Paz e Terra</t>
+  </si>
+  <si>
+    <t>ALMEIDA, Silvio</t>
+  </si>
+  <si>
+    <t>Racismo Estrutural</t>
+  </si>
+  <si>
+    <t>Pólen</t>
+  </si>
+  <si>
+    <t>BANTON, Michael</t>
+  </si>
+  <si>
+    <t>MENDES, Maria Manuela</t>
+  </si>
+  <si>
+    <t>MBEMBE, Achille</t>
+  </si>
+  <si>
+    <t>LAPLANTINE, François</t>
+  </si>
+  <si>
+    <t>BETHENCOURT, Francisco</t>
+  </si>
+  <si>
+    <t>A ideia de raça</t>
+  </si>
+  <si>
+    <t>Raça e racismo: controvérsias e ambiguidades</t>
+  </si>
+  <si>
+    <t>Crítica da razão negra</t>
+  </si>
+  <si>
+    <t>Aprender Antropologia</t>
+  </si>
+  <si>
+    <t>ARTIGO</t>
+  </si>
+  <si>
+    <t>Racismos- das Cruzadas ao século XX</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>Edições 70</t>
+  </si>
+  <si>
+    <t>N-1</t>
+  </si>
+  <si>
+    <t>Brasiliense</t>
+  </si>
+  <si>
+    <t>Companhia das letras</t>
+  </si>
+  <si>
+    <t>Vivência: Revista de Antropologia</t>
+  </si>
+  <si>
+    <t>Adicionais</t>
+  </si>
+  <si>
+    <t>[S. l.], v. 1, n. 39, p. 101–124, 2012. Disponível em: https://periodicos.ufrn.br/vivencia/article/view/1938. Acesso em: 14 abr. 2023</t>
+  </si>
+  <si>
+    <t>livros e artigos\Maria Manuela. Raça e racismo - controvérsias e ambiguidades. Revista Vivência, 2012.pdf</t>
+  </si>
+  <si>
+    <t>livros e artigos\MBEMBE, Achille. Crítica da razão negra. São Paulo- N-1, 2018.pdf</t>
+  </si>
+  <si>
+    <t>livros e artigos\LAPLANTINE, François. Aprender Antropologia. São Paulo- Brasiliense, 2012.pdf</t>
+  </si>
+  <si>
+    <t>FANON, Frantz</t>
+  </si>
+  <si>
+    <t>Os condenados da Terra</t>
+  </si>
+  <si>
+    <t>livros e artigos\Silvio ALMEIDA\racismo_estrutural_feminismos_-_silvio_luiz_de_almeida.pdf</t>
+  </si>
+  <si>
+    <t>livros e artigos\Fanon\os-condenados-da-terra-frantz-fanon.pdf</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Civilização Brasileira</t>
+  </si>
+  <si>
+    <t>Retrato do colonialismo</t>
+  </si>
+  <si>
+    <t>Origem da raça em Racismo Estrutural</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +242,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,35 +281,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -200,6 +416,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B5:L15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B5:L15"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Autor(es)" dataDxfId="12"/>
+    <tableColumn id="2" name="Notas" dataDxfId="11"/>
+    <tableColumn id="3" name="Tipo" dataDxfId="10"/>
+    <tableColumn id="4" name="Título" dataDxfId="9"/>
+    <tableColumn id="5" name="Tema" dataDxfId="8"/>
+    <tableColumn id="6" name="Localização" dataDxfId="7" dataCellStyle="Hiperlink"/>
+    <tableColumn id="7" name="Cidade" dataDxfId="6"/>
+    <tableColumn id="8" name="Editora" dataDxfId="5"/>
+    <tableColumn id="9" name="Ano" dataDxfId="4"/>
+    <tableColumn id="10" name="Fichamento" dataDxfId="3"/>
+    <tableColumn id="11" name="Adicionais" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,75 +701,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="2" max="2" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="54.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>11</v>
+      <c r="L5" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2016</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1968</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:L3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="G11" r:id="rId3"/>
+    <hyperlink ref="G12" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>